--- a/upload_files/table.xlsx
+++ b/upload_files/table.xlsx
@@ -20,7 +20,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>Olga</t>
+    <t>Evgen</t>
   </si>
   <si>
     <t>email</t>
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -428,7 +428,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -436,7 +436,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
